--- a/Assets/ArtRes/Excel/SceneInfo.xlsx
+++ b/Assets/ArtRes/Excel/SceneInfo.xlsx
@@ -27,52 +27,52 @@
     <t>name</t>
   </si>
   <si>
+    <t>tips</t>
+  </si>
+  <si>
     <t>sceneName</t>
   </si>
   <si>
-    <t>tips</t>
+    <t>money</t>
   </si>
   <si>
     <t>towerHp</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>imgScene/1</t>
+    <t>SceneImg/GameScene1</t>
   </si>
   <si>
     <t>疯狂树林</t>
   </si>
   <si>
+    <t>啦啦啦啦</t>
+  </si>
+  <si>
     <t>GameScene1</t>
   </si>
   <si>
-    <t>啦啦啦啦啦啦</t>
-  </si>
-  <si>
-    <t>imgScene/2</t>
+    <t>SceneImg/GameScene2</t>
   </si>
   <si>
     <t>极寒雪地</t>
   </si>
   <si>
+    <t>嘻嘻嘻嘻</t>
+  </si>
+  <si>
     <t>GameScene2</t>
   </si>
   <si>
-    <t>嘻嘻嘻嘻</t>
-  </si>
-  <si>
-    <t>imgScene/3</t>
+    <t>SceneImg/GameScene3</t>
   </si>
   <si>
     <t>熔岩旱土</t>
   </si>
   <si>
+    <t>哈哈哈哈</t>
+  </si>
+  <si>
     <t>GameScene3</t>
-  </si>
-  <si>
-    <t>哈哈哈哈哈啊</t>
   </si>
 </sst>
 </file>
@@ -80,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -94,6 +94,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -101,6 +116,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -108,6 +131,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -116,17 +154,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,9 +201,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,54 +218,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,22 +226,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,43 +247,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,139 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,15 +452,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,6 +486,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -515,15 +515,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -538,6 +529,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -546,10 +546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,31 +558,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,94 +597,94 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,11 +1048,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1095,10 +1093,10 @@
         <v>10</v>
       </c>
       <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2">
         <v>100</v>
-      </c>
-      <c r="G2">
-        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1118,10 +1116,10 @@
         <v>14</v>
       </c>
       <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3">
         <v>100</v>
-      </c>
-      <c r="G3">
-        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1141,10 +1139,10 @@
         <v>18</v>
       </c>
       <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4">
         <v>100</v>
-      </c>
-      <c r="G4">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
